--- a/me-docs/37.Ap-dung-ajax-cho-cac-chuc-nang-o-Admin.xlsx
+++ b/me-docs/37.Ap-dung-ajax-cho-cac-chuc-nang-o-Admin.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36F04E2-4FFE-479B-9576-E0A3FBE6B156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8346B38-8843-4896-8C81-D87D4C6F2480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notifyjs" sheetId="2" r:id="rId1"/>
     <sheet name="Ajax Status" sheetId="1" r:id="rId2"/>
+    <sheet name="Ajax Is Home" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>https://notifyjs.jpillora.com/</t>
   </si>
@@ -691,6 +692,231 @@
         <a:xfrm>
           <a:off x="609600" y="14287500"/>
           <a:ext cx="10487025" cy="2832597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>332038</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B96823A0-1DA5-5E12-12AF-BB93855470D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="10695238" cy="2438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>560762</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>8929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E7D9A65-A32E-6A44-C3D8-6B79FF9F005F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6286500"/>
+          <a:ext cx="9704762" cy="4771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>37768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713B61E3-A13B-FA5A-FEF5-0124CF566D22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11430000"/>
+          <a:ext cx="10753725" cy="5181268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>61345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6F1F90-909B-574C-03CE-033F37096C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3238501"/>
+          <a:ext cx="10639425" cy="2537844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>3609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084C96C6-75D6-6646-02A7-4CB56D7B63CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16954500"/>
+          <a:ext cx="10658475" cy="5147109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1003,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+    <sheetView topLeftCell="A185" workbookViewId="0">
       <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
@@ -1063,4 +1289,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F21BFB-F72D-4DF1-BE8B-05CBF2E507F0}">
+  <dimension ref="A2:B89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/37.Ap-dung-ajax-cho-cac-chuc-nang-o-Admin.xlsx
+++ b/me-docs/37.Ap-dung-ajax-cho-cac-chuc-nang-o-Admin.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8346B38-8843-4896-8C81-D87D4C6F2480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164165C5-0039-4DBB-B348-14448F15C504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notifyjs" sheetId="2" r:id="rId1"/>
     <sheet name="Ajax Status" sheetId="1" r:id="rId2"/>
     <sheet name="Ajax Is Home" sheetId="3" r:id="rId3"/>
+    <sheet name="Ajax Selectbox" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>https://notifyjs.jpillora.com/</t>
   </si>
@@ -917,6 +918,231 @@
         <a:xfrm>
           <a:off x="609600" y="16954500"/>
           <a:ext cx="10658475" cy="5147109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>46552</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794EA34A-9F55-A720-E46D-294380E31249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8580952" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>484724</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F23CB0-7181-EA9E-2CDC-32337424D7E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2667000"/>
+          <a:ext cx="8409524" cy="1895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>541714</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>94714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2AA909-9988-711D-0F6C-976758F116B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4953000"/>
+          <a:ext cx="9685714" cy="4285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>366800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D2A779-5A7F-6370-176A-FF32597A6EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9715500"/>
+          <a:ext cx="9510800" cy="4629150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>310972</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9ECB468-378E-4B3E-BAC3-53C682937C75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14668500"/>
+          <a:ext cx="10674172" cy="5086350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1295,7 +1521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F21BFB-F72D-4DF1-BE8B-05CBF2E507F0}">
   <dimension ref="A2:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
@@ -1330,4 +1556,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ADB134-7D4F-4988-9C93-CA1A032AF623}">
+  <dimension ref="A2:B77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>